--- a/PyToolConfig.xlsx
+++ b/PyToolConfig.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Synelecs\Desktop\Code\hmi-script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280A4047-ED3D-4DE5-BC37-B233CAADD412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F67E094-374C-43EC-81C3-851B0688A953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1845" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PyToolConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Safety Areas</t>
   </si>
@@ -179,36 +180,18 @@
     </r>
   </si>
   <si>
-    <t>"PT_Intlk": ["FC", "FV", "FFC", "LC", "LV", "PC", "PV", "TC", "TV", "MC", "MP", "XS", "XV"],</t>
-  </si>
-  <si>
-    <t>"PT_CfgModeChg": ["MC", "MP"],</t>
-  </si>
-  <si>
-    <t>"PT_CondSel": ["FC", "FV", "FFC", "LC", "LV", "PC", "PV", "TC", "TV", "MC", "MP", "XS", "XV"],</t>
-  </si>
-  <si>
     <t>"PT_ForkEH": ["LS"],</t>
   </si>
   <si>
-    <t>"PT_Perm": ["MC", "MP", "XS", "XV"],</t>
-  </si>
-  <si>
     <t>"PT_Valve_Diag": ["MV", "XV"],</t>
   </si>
   <si>
     <t>"P_AIn": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "TI", "VI", "XI"],</t>
   </si>
   <si>
-    <t>"P_AInHART": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "VI", "TI", "XI"],</t>
-  </si>
-  <si>
     <t>"P_AIChan": ["AI", "DI", "FI", "FFI", "LI", "LS", "PDI", "PI", "SI", "TI", "VI", "XI"],</t>
   </si>
   <si>
-    <t>"P_E300Ovld": ["MC", "MP"],</t>
-  </si>
-  <si>
     <t>"PT_Intlk": {"firstRow": 10, "instanceKey": 4, "key": 3, "label": 6, "tag": 7, "area": 8},</t>
   </si>
   <si>
@@ -242,71 +225,53 @@
     <t>"P_E300Ovld": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},</t>
   </si>
   <si>
-    <t>"P_Motor": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},</t>
-  </si>
-  <si>
-    <t>"P_Motor": ["MC", "MP"],</t>
-  </si>
-  <si>
     <t>"P_PF52x": ["MC", "MP"],</t>
   </si>
   <si>
     <t>"P_PF755": ["MC", "MP"],</t>
   </si>
   <si>
-    <t>"P_PF52x": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},</t>
-  </si>
-  <si>
-    <t>"P_PF755": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},</t>
-  </si>
-  <si>
     <t>"P_PIDE": ["FC", "FFC", "LC", "PC", "TC"],</t>
   </si>
   <si>
-    <t>"P_PIDE": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "rangeMin": 10, "rangeMax": 11, "HasPVNav": 12, "PVNavTag": 13, "HasCVNav": 14, "CVNavTag": 15, "HasPVNavStatic": "1", "HasCVNavStatic": "1"},</t>
-  </si>
-  <si>
-    <t>"P_ResInh": ["MC", "MP"],</t>
-  </si>
-  <si>
     <t>"P_ResInh": {"firstRow": 10, "instanceKey": 4, "key": 3, "label": 6, "tag": 7, "area": 8},</t>
   </si>
   <si>
-    <t>"P_RunTime": ["MC", "MP"],</t>
-  </si>
-  <si>
     <t>"P_RunTime": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "descStatic": "Accumulated Run Time (Hours)"},</t>
   </si>
   <si>
     <t>"P_ValveC": ["FV", "LV", "PV", "TV"],</t>
   </si>
   <si>
-    <t>"P_ValveC": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "CVNavTag": 9},</t>
-  </si>
-  <si>
     <t>"P_ValveSO": ["XS", "XV"],</t>
   </si>
   <si>
-    <t>"P_ValveSO": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},</t>
-  </si>
-  <si>
     <t>"P_ValveStats": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},</t>
   </si>
   <si>
-    <t>"P_VSD": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8}</t>
-  </si>
-  <si>
     <t>"P_ValveStats": ["MV", "XV"],</t>
   </si>
   <si>
     <t>"P_VSD": ["MC"]</t>
   </si>
   <si>
-    <t>"P_DIn": ["ESD", "FS", "LS", "LSH", "PS", "TS", "ZFR"],</t>
+    <t>"+H02": "BioRA-R1-R2-R3-R4",</t>
+  </si>
+  <si>
+    <t>"+H03": "area01",</t>
+  </si>
+  <si>
+    <t>"+H13": "Inoc-ChemTank-ChemLoad",</t>
+  </si>
+  <si>
+    <t>"+H15": "area01",</t>
+  </si>
+  <si>
+    <t>"+H18": "Civil-FF-ProcTank",</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Typicals (Rows) </t>
+      <t xml:space="preserve">New Typicals (Rows) </t>
     </r>
     <r>
       <rPr>
@@ -352,26 +317,296 @@
     </r>
   </si>
   <si>
-    <t>"+H02": "BioRA-R1-R2-R3-R4",</t>
-  </si>
-  <si>
-    <t>"+H03": "area01",</t>
-  </si>
-  <si>
-    <t>"+H13": "Inoc-ChemTank-ChemLoad",</t>
-  </si>
-  <si>
-    <t>"+H15": "area01",</t>
-  </si>
-  <si>
-    <t>"+H18": "Civil-FF-ProcTank",</t>
+    <t>PyTool README</t>
+  </si>
+  <si>
+    <t>It will load the Instrument Index File, and process &amp; filter the Data depending on the following Inputs:</t>
+  </si>
+  <si>
+    <t>.) P&amp;ID</t>
+  </si>
+  <si>
+    <t>.) Typicals</t>
+  </si>
+  <si>
+    <t>This Tool works hand in hand with the ProcessLibraryOnlineConfigTool,</t>
+  </si>
+  <si>
+    <t>For each given Typical the data will be processed and filtered by the corresponding Typical Filter Logic.</t>
+  </si>
+  <si>
+    <t>Output will then be stored on the desktop as new Excel File with two Sheets for each filtered typical (Control- &amp; Full-Sheet).</t>
+  </si>
+  <si>
+    <t>The Full-Sheet's will in the end contain ALL rows that are in the ProcessLib File, but with all the Rows updated with the Instrument Index Data.</t>
+  </si>
+  <si>
+    <t>The rows in the Full-Sheet's can then fully replace the rows in the corresponding Typical Sheet inside the ProcessLibraryOnlineConfigTool File.</t>
+  </si>
+  <si>
+    <t>The following Typicals are available in this Tool:</t>
+  </si>
+  <si>
+    <t>PT_Intlk</t>
+  </si>
+  <si>
+    <t>PT_CfgModeChg</t>
+  </si>
+  <si>
+    <t>PT_CondSel</t>
+  </si>
+  <si>
+    <t>PT_ForkEH</t>
+  </si>
+  <si>
+    <t>PT_Perm</t>
+  </si>
+  <si>
+    <t>PT_Valve_Diag</t>
+  </si>
+  <si>
+    <t>P_AIChan</t>
+  </si>
+  <si>
+    <t>P_AIn</t>
+  </si>
+  <si>
+    <t>P_AInHART</t>
+  </si>
+  <si>
+    <t>P_DIn</t>
+  </si>
+  <si>
+    <t>P_E300Ovld</t>
+  </si>
+  <si>
+    <t>P_Motor</t>
+  </si>
+  <si>
+    <t>P_PF52x</t>
+  </si>
+  <si>
+    <t>P_PF755</t>
+  </si>
+  <si>
+    <t>P_PIDE</t>
+  </si>
+  <si>
+    <t>P_ResInh</t>
+  </si>
+  <si>
+    <t>P_RunTime</t>
+  </si>
+  <si>
+    <t>P_ValveC</t>
+  </si>
+  <si>
+    <t>P_ValveSO</t>
+  </si>
+  <si>
+    <t>P_ValveStats</t>
+  </si>
+  <si>
+    <t>P_VSD</t>
+  </si>
+  <si>
+    <t>Tool Info</t>
+  </si>
+  <si>
+    <t>Files - Info &amp; Usage</t>
+  </si>
+  <si>
+    <t>Usage &amp; Walkthrough</t>
+  </si>
+  <si>
+    <t>The following Files are needed for this Tool to work:</t>
+  </si>
+  <si>
+    <t>.) PyToolConfig.xlsx</t>
+  </si>
+  <si>
+    <t>.) Instrument Index</t>
+  </si>
+  <si>
+    <t>.) ProcessLibraryOnlineConfigTool.xls</t>
+  </si>
+  <si>
+    <t>.) PyTool.exe</t>
+  </si>
+  <si>
+    <t>PyTool.exe</t>
+  </si>
+  <si>
+    <t>Main Program that will start the Tool.</t>
+  </si>
+  <si>
+    <t>Will request the files mentioned above and perform filtering and output logic.</t>
+  </si>
+  <si>
+    <t>PyToolConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Configuration Interface - holds important indexing and filtering parameters.</t>
+  </si>
+  <si>
+    <t>Edit with caution. Must be JSON Formatted.</t>
+  </si>
+  <si>
+    <t>Instrument Index</t>
+  </si>
+  <si>
+    <t>ProcessLibraryOnlineConfigTool.xls</t>
+  </si>
+  <si>
+    <t>Data in the Instrument Index will be treated as Master Data.</t>
+  </si>
+  <si>
+    <t>Its Values will always have Top Priority when Updating the ProcessLib File.</t>
+  </si>
+  <si>
+    <t>Values from the PLC Program will be loaded into this File with created Macros.</t>
+  </si>
+  <si>
+    <t>Those Values will then be updated by the PyTool using the Instrument Index.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Now overwrite the seperate sheets from the ProcessLib file with the corresponding processed-output-file sheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Move file back to remote machine and load into programm</t>
+  </si>
+  <si>
+    <t>| Select PyToolConfig File in dialog to load config parameters</t>
+  </si>
+  <si>
+    <t>| Start program (.exe/script)</t>
+  </si>
+  <si>
+    <t>| Select Instrument Index in dialog and load entire Instrument Index Data</t>
+  </si>
+  <si>
+    <t>|---- Count of Instruments with specified Typical will be displayed</t>
+  </si>
+  <si>
+    <t>|---- Available Typicals will be displayed</t>
+  </si>
+  <si>
+    <t>|---- All the found candidates for each selected Typical will then be displayed</t>
+  </si>
+  <si>
+    <t>|---- Candidate meaning it is possible for those candidates to fit into this typical. The Tool will handle this filtering and merging accordingly</t>
+  </si>
+  <si>
+    <t>| Continue to Merging Process - Select ProcessLibraryOnlineConfigTool-File in dialog and load contents</t>
+  </si>
+  <si>
+    <t>| ---- For each entered typical 2 sheets are created in a new excel file that in the end will be saved on your desktop.</t>
+  </si>
+  <si>
+    <t>| ---- For each entered typical, the filtered data with entered P&amp;ID from Instrument Index will be merged with the ProcessLib Sheets</t>
+  </si>
+  <si>
+    <t>| ---- The updated Sheets will contain exactly the same row counts as the ProcessLib Sheets had before</t>
+  </si>
+  <si>
+    <t>| Get 'ProcessLibraryOnlineConfigTool.xls' File (with desired typicals sheet-data) from Remote Machine.</t>
+  </si>
+  <si>
+    <t>| Enter target P&amp;ID</t>
+  </si>
+  <si>
+    <t>|---- Select single P&amp;ID e.g. 2407, or all with *</t>
+  </si>
+  <si>
+    <t>| Enter target Typicals</t>
+  </si>
+  <si>
+    <t>|---- Select single Typical or multiple -&gt; by seperating them with a semicolon (typical;typical;typical), or selecting all with *</t>
+  </si>
+  <si>
+    <t>and will take away most of the manual Instrument Index lookup and value updating.</t>
+  </si>
+  <si>
+    <t>"Faceplates": ["AI", "ESDG"],</t>
+  </si>
+  <si>
+    <t>"PT_AInGas": ["AI"],</t>
+  </si>
+  <si>
+    <t>"PT_AInGasPART": ["AI", "AIA"],</t>
+  </si>
+  <si>
+    <t>"Faceplates": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 7, "label": 8, "tag": 9, "area": 8},</t>
+  </si>
+  <si>
+    <t>"PT_AInGas": {"firstRow": 10, "instanceKey": 4, "key": 3, "area": 5, "desc": 6, "unit": 7, "label": 8, "tag": 9, "rangeMin": 152, "rangeMax": 153},</t>
+  </si>
+  <si>
+    <t>"PT_ElectricalRef": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},</t>
+  </si>
+  <si>
+    <t>"PT_AInGasPART": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 7, "label": 8, "tag": 9, "area": 10},</t>
+  </si>
+  <si>
+    <t>"P_VSD": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 138, "PCmdLockStatic": "1"}</t>
+  </si>
+  <si>
+    <t>"P_ValveSO": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 82, "PCmdLockStatic": "1"},</t>
+  </si>
+  <si>
+    <t>"P_ValveC": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "CVNavTag": 9, "PCmdLock": 90, "PCmdLockStatic": "1"},</t>
+  </si>
+  <si>
+    <t>"P_PIDE": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "rangeMin": 10, "rangeMax": 11, "HasPVNav": 12, "PVNavTag": 13, "HasCVNav": 14, "CVNavTag": 15, "HasPVNavStatic": "1", "HasCVNavStatic": "1", "PCmdLock": 188, "PCmdLockStatic": "1"},</t>
+  </si>
+  <si>
+    <t>"P_PF755": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 110, "PCmdLockStatic": "1"},</t>
+  </si>
+  <si>
+    <t>"P_Motor": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 84, "PCmdLockStatic": "1"},</t>
+  </si>
+  <si>
+    <t>"P_PF52x": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 120, "PCmdLockStatic": "1"},</t>
+  </si>
+  <si>
+    <t>"P_AInHART": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "TI", "VI", "XI"],</t>
+  </si>
+  <si>
+    <t>"PT_ElectricalRef": ["AI", "DI", "ESD", "FFI", "FI", "FS", "FV", "LI", "LS", "LSH", "LV", "MC", "MP", "PDI", "PI", "PS", "PV", "SI", "TI", "TS", "TV", "VI", "XA", "XI", "XS", "ZFR"],</t>
+  </si>
+  <si>
+    <t>"PT_Intlk": ["FC", "FV", "FFC", "LC", "LV", "MA", "MC", "MP", "PC", "PV", "TC", "TV", "XS", "XV"],</t>
+  </si>
+  <si>
+    <t>"PT_CfgModeChg": ["MA", "MC", "MP"],</t>
+  </si>
+  <si>
+    <t>"PT_CondSel": ["FC", "FV", "FFC", "LC", "LV", "MA", "MC", "MP", "PC", "PV", "TC", "TV", "XS", "XV"],</t>
+  </si>
+  <si>
+    <t>"PT_Perm": ["MA", "MC", "MP", "XS", "XV"],</t>
+  </si>
+  <si>
+    <t>"P_DIn": ["ESD", "FS", "LS", "LSH", "PS", "TS", "XA", "XS", "ZFR"],</t>
+  </si>
+  <si>
+    <t>"P_E300Ovld": ["MA", "MC", "MP"],</t>
+  </si>
+  <si>
+    <t>"P_Motor": ["MA", "MC", "MP"],</t>
+  </si>
+  <si>
+    <t>"P_ResInh": ["MA", "MC", "MP"],</t>
+  </si>
+  <si>
+    <t>"P_RunTime": ["MA", "MC", "MP"],</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,8 +680,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,8 +750,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -636,14 +905,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -706,16 +1015,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -997,27 +1371,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="6" customWidth="1"/>
-    <col min="5" max="5" width="107" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="236" style="6" customWidth="1"/>
-    <col min="9" max="9" width="35" style="6" customWidth="1"/>
+    <col min="5" max="5" width="143.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="255.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="str">
         <f>"{"&amp;_xlfn.CONCAT(C1,E1,G1,H1)&amp;"}"</f>
-        <v>{"areaParameters": {"+H00": "OSBL","+H01": "GC","+H02": "BioRA-R1-R2-R3-R4","+H03": "area01","+H04": "CIP","+H05": "PSA","+H06": "Distn","+H07": "CW","+H08": "Cogen","+H09": "WWT","+H10": "EtOH","+H11": "Civil","+H12": "OSBL","+H13": "Inoc-ChemTank-ChemLoad","+H14": "Civil","+H15": "area01","+H16": "Civil","+H17": "FF","+H18": "Civil-FF-ProcTank","+H19": "ISBL","+H20": "ISBL","+H21": "ISBL","+H22": "WT","+H23": "GC","+H24": "WT","+H25": "WT","+H26": "AnalyC"},"typicalParameters": {"PT_Intlk": ["FC", "FV", "FFC", "LC", "LV", "PC", "PV", "TC", "TV", "MC", "MP", "XS", "XV"],"PT_CfgModeChg": ["MC", "MP"],"PT_CondSel": ["FC", "FV", "FFC", "LC", "LV", "PC", "PV", "TC", "TV", "MC", "MP", "XS", "XV"],"PT_ForkEH": ["LS"],"PT_Perm": ["MC", "MP", "XS", "XV"],"PT_Valve_Diag": ["MV", "XV"],"P_AInHART": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "VI", "TI", "XI"],"P_AIChan": ["AI", "DI", "FI", "FFI", "LI", "LS", "PDI", "PI", "SI", "TI", "VI", "XI"],"P_AIn": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "TI", "VI", "XI"],"P_DIn": ["ESD", "FS", "LS", "LSH", "PS", "TS", "ZFR"],"P_E300Ovld": ["MC", "MP"],"P_Motor": ["MC", "MP"],"P_PF52x": ["MC", "MP"],"P_PF755": ["MC", "MP"],"P_PIDE": ["FC", "FFC", "LC", "PC", "TC"],"P_ResInh": ["MC", "MP"],"P_RunTime": ["MC", "MP"],"P_ValveC": ["FV", "LV", "PV", "TV"],"P_ValveSO": ["XS", "XV"],"P_ValveStats": ["MV", "XV"],"P_VSD": ["MC"]},"indexParameters": {"firstRow": 8,"pidColumn": 3,"locationColumn": 5,"typeColumn": 6,"tagColumn": 7,"descColumn": 10,"rangeColumn": 46,"unitColumn": 47,"routeColumn": 29,"safetyColumn1": 34,"safetyColumn2": 35,"safetyColumn3": 36},"processLibParameters": {"PT_Intlk": {"firstRow": 10, "instanceKey": 4, "key": 3, "label": 6, "tag": 7, "area": 8},"PT_CfgModeChg": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"PT_CondSel": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "descStatic": "Interlocks"},"PT_ForkEH": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "0stText": 9, "1stText": 10, "0stTextStatic": "notOK", "1stTextStatic": "OK"},"PT_Perm": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"PT_Valve_Diag": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_AInHART": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "rangeMin": 11, "rangeMax": 12},"P_AIChan": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "PVEUMin": 13, "PVEUMax": 14, "PVEUMinStatic": "0", "PVEUMaxStatic": "100"},"P_AIn": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "InpRawMin": 10, "InpRawMax": 11, "rangeMin": 12, "rangeMax": 13, "InpRawMinStatic": "0", "InpRawMaxStatic": "100"},"P_DIn": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "0stText": 9, "1stText": 10, "0stTextStatic": "notOK", "1stTextStatic": "OK"},"P_E300Ovld": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_Motor": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_PF52x": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_PF755": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_PIDE": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "rangeMin": 10, "rangeMax": 11, "HasPVNav": 12, "PVNavTag": 13, "HasCVNav": 14, "CVNavTag": 15, "HasPVNavStatic": "1", "HasCVNavStatic": "1"},"P_ResInh": {"firstRow": 10, "instanceKey": 4, "key": 3, "label": 6, "tag": 7, "area": 8},"P_RunTime": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "descStatic": "Accumulated Run Time (Hours)"},"P_ValveC": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "CVNavTag": 9},"P_ValveSO": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_ValveStats": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_VSD": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8}}}</v>
+        <v>{"areaParameters": {"+H00": "OSBL","+H01": "GC","+H02": "BioRA-R1-R2-R3-R4","+H03": "area01","+H04": "CIP","+H05": "PSA","+H06": "Distn","+H07": "CW","+H08": "Cogen","+H09": "WWT","+H10": "EtOH","+H11": "Civil","+H12": "OSBL","+H13": "Inoc-ChemTank-ChemLoad","+H14": "Civil","+H15": "area01","+H16": "Civil","+H17": "FF","+H18": "Civil-FF-ProcTank","+H19": "ISBL","+H20": "ISBL","+H21": "ISBL","+H22": "WT","+H23": "GC","+H24": "WT","+H25": "WT","+H26": "AnalyC"},"typicalParameters": {"Faceplates": ["AI", "ESDG"],"PT_AInGas": ["AI"],"PT_ElectricalRef": ["AI", "DI", "ESD", "FFI", "FI", "FS", "FV", "LI", "LS", "LSH", "LV", "MC", "MP", "PDI", "PI", "PS", "PV", "SI", "TI", "TS", "TV", "VI", "XA", "XI", "XS", "ZFR"],"PT_AInGasPART": ["AI", "AIA"],"PT_Intlk": ["FC", "FV", "FFC", "LC", "LV", "MA", "MC", "MP", "PC", "PV", "TC", "TV", "XS", "XV"],"PT_CfgModeChg": ["MA", "MC", "MP"],"PT_CondSel": ["FC", "FV", "FFC", "LC", "LV", "MA", "MC", "MP", "PC", "PV", "TC", "TV", "XS", "XV"],"PT_ForkEH": ["LS"],"PT_Perm": ["MA", "MC", "MP", "XS", "XV"],"PT_Valve_Diag": ["MV", "XV"],"P_AInHART": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "TI", "VI", "XI"],"P_AIChan": ["AI", "DI", "FI", "FFI", "LI", "LS", "PDI", "PI", "SI", "TI", "VI", "XI"],"P_AIn": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "TI", "VI", "XI"],"P_DIn": ["ESD", "FS", "LS", "LSH", "PS", "TS", "XA", "XS", "ZFR"],"P_E300Ovld": ["MA", "MC", "MP"],"P_Motor": ["MA", "MC", "MP"],"P_PF52x": ["MC", "MP"],"P_PF755": ["MC", "MP"],"P_PIDE": ["FC", "FFC", "LC", "PC", "TC"],"P_ResInh": ["MA", "MC", "MP"],"P_RunTime": ["MA", "MC", "MP"],"P_ValveC": ["FV", "LV", "PV", "TV"],"P_ValveSO": ["XS", "XV"],"P_ValveStats": ["MV", "XV"],"P_VSD": ["MC"]},"indexParameters": {"firstRow": 8,"pidColumn": 3,"locationColumn": 5,"typeColumn": 6,"tagColumn": 7,"descColumn": 10,"rangeColumn": 46,"unitColumn": 47,"routeColumn": 29,"safetyColumn1": 34,"safetyColumn2": 35,"safetyColumn3": 36},"processLibParameters": {"Faceplates": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 7, "label": 8, "tag": 9, "area": 8},"PT_AInGas": {"firstRow": 10, "instanceKey": 4, "key": 3, "area": 5, "desc": 6, "unit": 7, "label": 8, "tag": 9, "rangeMin": 152, "rangeMax": 153},"PT_ElectricalRef": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"PT_AInGasPART": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 7, "label": 8, "tag": 9, "area": 10},"PT_Intlk": {"firstRow": 10, "instanceKey": 4, "key": 3, "label": 6, "tag": 7, "area": 8},"PT_CfgModeChg": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"PT_CondSel": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "descStatic": "Interlocks"},"PT_ForkEH": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "0stText": 9, "1stText": 10, "0stTextStatic": "notOK", "1stTextStatic": "OK"},"PT_Perm": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"PT_Valve_Diag": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_AInHART": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "rangeMin": 11, "rangeMax": 12},"P_AIChan": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "PVEUMin": 13, "PVEUMax": 14, "PVEUMinStatic": "0", "PVEUMaxStatic": "100"},"P_AIn": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "InpRawMin": 10, "InpRawMax": 11, "rangeMin": 12, "rangeMax": 13, "InpRawMinStatic": "0", "InpRawMaxStatic": "100"},"P_DIn": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "0stText": 9, "1stText": 10, "0stTextStatic": "notOK", "1stTextStatic": "OK"},"P_E300Ovld": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_Motor": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 84, "PCmdLockStatic": "1"},"P_PF52x": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 120, "PCmdLockStatic": "1"},"P_PF755": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 110, "PCmdLockStatic": "1"},"P_PIDE": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "rangeMin": 10, "rangeMax": 11, "HasPVNav": 12, "PVNavTag": 13, "HasCVNav": 14, "CVNavTag": 15, "HasPVNavStatic": "1", "HasCVNavStatic": "1", "PCmdLock": 188, "PCmdLockStatic": "1"},"P_ResInh": {"firstRow": 10, "instanceKey": 4, "key": 3, "label": 6, "tag": 7, "area": 8},"P_RunTime": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "descStatic": "Accumulated Run Time (Hours)"},"P_ValveC": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "CVNavTag": 9, "PCmdLock": 90, "PCmdLockStatic": "1"},"P_ValveSO": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 82, "PCmdLockStatic": "1"},"P_ValveStats": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_VSD": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 138, "PCmdLockStatic": "1"}}}</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="1" t="str">
@@ -1026,8 +1400,8 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="1" t="str">
-        <f>"""typicalParameters"": {"&amp;_xlfn.CONCAT(E5:E25)&amp;"},"</f>
-        <v>"typicalParameters": {"PT_Intlk": ["FC", "FV", "FFC", "LC", "LV", "PC", "PV", "TC", "TV", "MC", "MP", "XS", "XV"],"PT_CfgModeChg": ["MC", "MP"],"PT_CondSel": ["FC", "FV", "FFC", "LC", "LV", "PC", "PV", "TC", "TV", "MC", "MP", "XS", "XV"],"PT_ForkEH": ["LS"],"PT_Perm": ["MC", "MP", "XS", "XV"],"PT_Valve_Diag": ["MV", "XV"],"P_AInHART": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "VI", "TI", "XI"],"P_AIChan": ["AI", "DI", "FI", "FFI", "LI", "LS", "PDI", "PI", "SI", "TI", "VI", "XI"],"P_AIn": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "TI", "VI", "XI"],"P_DIn": ["ESD", "FS", "LS", "LSH", "PS", "TS", "ZFR"],"P_E300Ovld": ["MC", "MP"],"P_Motor": ["MC", "MP"],"P_PF52x": ["MC", "MP"],"P_PF755": ["MC", "MP"],"P_PIDE": ["FC", "FFC", "LC", "PC", "TC"],"P_ResInh": ["MC", "MP"],"P_RunTime": ["MC", "MP"],"P_ValveC": ["FV", "LV", "PV", "TV"],"P_ValveSO": ["XS", "XV"],"P_ValveStats": ["MV", "XV"],"P_VSD": ["MC"]},</v>
+        <f>"""typicalParameters"": {"&amp;_xlfn.CONCAT(E5:E29)&amp;"},"</f>
+        <v>"typicalParameters": {"Faceplates": ["AI", "ESDG"],"PT_AInGas": ["AI"],"PT_ElectricalRef": ["AI", "DI", "ESD", "FFI", "FI", "FS", "FV", "LI", "LS", "LSH", "LV", "MC", "MP", "PDI", "PI", "PS", "PV", "SI", "TI", "TS", "TV", "VI", "XA", "XI", "XS", "ZFR"],"PT_AInGasPART": ["AI", "AIA"],"PT_Intlk": ["FC", "FV", "FFC", "LC", "LV", "MA", "MC", "MP", "PC", "PV", "TC", "TV", "XS", "XV"],"PT_CfgModeChg": ["MA", "MC", "MP"],"PT_CondSel": ["FC", "FV", "FFC", "LC", "LV", "MA", "MC", "MP", "PC", "PV", "TC", "TV", "XS", "XV"],"PT_ForkEH": ["LS"],"PT_Perm": ["MA", "MC", "MP", "XS", "XV"],"PT_Valve_Diag": ["MV", "XV"],"P_AInHART": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "TI", "VI", "XI"],"P_AIChan": ["AI", "DI", "FI", "FFI", "LI", "LS", "PDI", "PI", "SI", "TI", "VI", "XI"],"P_AIn": ["AI", "DI", "FI", "FFI", "LI", "PDI", "PI", "SI", "TI", "VI", "XI"],"P_DIn": ["ESD", "FS", "LS", "LSH", "PS", "TS", "XA", "XS", "ZFR"],"P_E300Ovld": ["MA", "MC", "MP"],"P_Motor": ["MA", "MC", "MP"],"P_PF52x": ["MC", "MP"],"P_PF755": ["MC", "MP"],"P_PIDE": ["FC", "FFC", "LC", "PC", "TC"],"P_ResInh": ["MA", "MC", "MP"],"P_RunTime": ["MA", "MC", "MP"],"P_ValveC": ["FV", "LV", "PV", "TV"],"P_ValveSO": ["XS", "XV"],"P_ValveStats": ["MV", "XV"],"P_VSD": ["MC"]},</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="18" t="str">
@@ -1035,12 +1409,12 @@
         <v>"indexParameters": {"firstRow": 8,"pidColumn": 3,"locationColumn": 5,"typeColumn": 6,"tagColumn": 7,"descColumn": 10,"rangeColumn": 46,"unitColumn": 47,"routeColumn": 29,"safetyColumn1": 34,"safetyColumn2": 35,"safetyColumn3": 36},</v>
       </c>
       <c r="H1" s="19" t="str">
-        <f>"""processLibParameters"": {"&amp;_xlfn.CONCAT(H5:H25)&amp;"}"</f>
-        <v>"processLibParameters": {"PT_Intlk": {"firstRow": 10, "instanceKey": 4, "key": 3, "label": 6, "tag": 7, "area": 8},"PT_CfgModeChg": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"PT_CondSel": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "descStatic": "Interlocks"},"PT_ForkEH": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "0stText": 9, "1stText": 10, "0stTextStatic": "notOK", "1stTextStatic": "OK"},"PT_Perm": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"PT_Valve_Diag": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_AInHART": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "rangeMin": 11, "rangeMax": 12},"P_AIChan": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "PVEUMin": 13, "PVEUMax": 14, "PVEUMinStatic": "0", "PVEUMaxStatic": "100"},"P_AIn": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "InpRawMin": 10, "InpRawMax": 11, "rangeMin": 12, "rangeMax": 13, "InpRawMinStatic": "0", "InpRawMaxStatic": "100"},"P_DIn": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "0stText": 9, "1stText": 10, "0stTextStatic": "notOK", "1stTextStatic": "OK"},"P_E300Ovld": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_Motor": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_PF52x": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_PF755": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_PIDE": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "rangeMin": 10, "rangeMax": 11, "HasPVNav": 12, "PVNavTag": 13, "HasCVNav": 14, "CVNavTag": 15, "HasPVNavStatic": "1", "HasCVNavStatic": "1"},"P_ResInh": {"firstRow": 10, "instanceKey": 4, "key": 3, "label": 6, "tag": 7, "area": 8},"P_RunTime": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "descStatic": "Accumulated Run Time (Hours)"},"P_ValveC": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "CVNavTag": 9},"P_ValveSO": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_ValveStats": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_VSD": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8}}</v>
+        <f>"""processLibParameters"": {"&amp;_xlfn.CONCAT(H5:H29)&amp;"}"</f>
+        <v>"processLibParameters": {"Faceplates": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 7, "label": 8, "tag": 9, "area": 8},"PT_AInGas": {"firstRow": 10, "instanceKey": 4, "key": 3, "area": 5, "desc": 6, "unit": 7, "label": 8, "tag": 9, "rangeMin": 152, "rangeMax": 153},"PT_ElectricalRef": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"PT_AInGasPART": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 7, "label": 8, "tag": 9, "area": 10},"PT_Intlk": {"firstRow": 10, "instanceKey": 4, "key": 3, "label": 6, "tag": 7, "area": 8},"PT_CfgModeChg": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"PT_CondSel": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "descStatic": "Interlocks"},"PT_ForkEH": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "0stText": 9, "1stText": 10, "0stTextStatic": "notOK", "1stTextStatic": "OK"},"PT_Perm": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"PT_Valve_Diag": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_AInHART": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "rangeMin": 11, "rangeMax": 12},"P_AIChan": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "PVEUMin": 13, "PVEUMax": 14, "PVEUMinStatic": "0", "PVEUMaxStatic": "100"},"P_AIn": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "InpRawMin": 10, "InpRawMax": 11, "rangeMin": 12, "rangeMax": 13, "InpRawMinStatic": "0", "InpRawMaxStatic": "100"},"P_DIn": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "0stText": 9, "1stText": 10, "0stTextStatic": "notOK", "1stTextStatic": "OK"},"P_E300Ovld": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_Motor": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 84, "PCmdLockStatic": "1"},"P_PF52x": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 120, "PCmdLockStatic": "1"},"P_PF755": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 110, "PCmdLockStatic": "1"},"P_PIDE": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "unit": 9, "rangeMin": 10, "rangeMax": 11, "HasPVNav": 12, "PVNavTag": 13, "HasCVNav": 14, "CVNavTag": 15, "HasPVNavStatic": "1", "HasCVNavStatic": "1", "PCmdLock": 188, "PCmdLockStatic": "1"},"P_ResInh": {"firstRow": 10, "instanceKey": 4, "key": 3, "label": 6, "tag": 7, "area": 8},"P_RunTime": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "descStatic": "Accumulated Run Time (Hours)"},"P_ValveC": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "CVNavTag": 9, "PCmdLock": 90, "PCmdLockStatic": "1"},"P_ValveSO": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 82, "PCmdLockStatic": "1"},"P_ValveStats": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8},"P_VSD": {"firstRow": 10, "instanceKey": 4, "key": 3, "desc": 5, "label": 6, "tag": 7, "area": 8, "PCmdLock": 138, "PCmdLockStatic": "1"}}</v>
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="13" t="s">
@@ -1048,16 +1422,16 @@
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
@@ -1076,13 +1450,13 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
       <c r="E4" s="10"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="11" t="s">
@@ -1090,18 +1464,18 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="11" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="11" t="s">
@@ -1109,56 +1483,56 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="11" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>51</v>
+      <c r="H6" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="11" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="11" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="11" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>53</v>
+      <c r="H8" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="11" t="s">
@@ -1166,18 +1540,18 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="11" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>54</v>
+      <c r="H9" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="11" t="s">
@@ -1185,18 +1559,18 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="11" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="20" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="11" t="s">
@@ -1204,18 +1578,18 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="11" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>56</v>
+      <c r="H11" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="11" t="s">
@@ -1223,18 +1597,18 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="11" t="s">
@@ -1242,18 +1616,18 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="11" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="20" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="11" t="s">
@@ -1261,18 +1635,18 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="11" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="20" t="s">
         <v>34</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="11" t="s">
@@ -1280,18 +1654,18 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="11" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="20" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="11" t="s">
@@ -1299,18 +1673,18 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="11" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="20" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="11" t="s">
@@ -1318,33 +1692,33 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="11" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="20"/>
       <c r="H17" s="17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="11" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="11" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="20"/>
       <c r="H18" s="17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="11" t="s">
@@ -1352,33 +1726,33 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="11" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="20"/>
       <c r="H19" s="17" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="11" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="11" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="20"/>
       <c r="H20" s="17" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="11" t="s">
@@ -1386,16 +1760,16 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="11" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="20"/>
       <c r="H21" s="17" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="11" t="s">
@@ -1403,33 +1777,33 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="20"/>
       <c r="H22" s="17" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="11" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="20"/>
       <c r="H23" s="17" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="11" t="s">
@@ -1437,75 +1811,125 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="11" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="20"/>
       <c r="H24" s="17" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="25" t="s">
-        <v>80</v>
+      <c r="E25" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="27" t="s">
-        <v>78</v>
+      <c r="G25" s="20"/>
+      <c r="H25" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="7"/>
+      <c r="E26" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
+      <c r="E27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="7"/>
+      <c r="E28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="7"/>
+      <c r="E29" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1514,4 +1938,376 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD8723F-4287-4CB2-995D-6CC3DAD418FD}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="91.44140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="125.5546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1"/>
+    <col min="5" max="5" width="125.5546875" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="C6" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="46"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="C10" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
+      <c r="C13" s="31"/>
+      <c r="E13" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52"/>
+      <c r="C15" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="C17" s="30"/>
+      <c r="E17" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="C18" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="C19" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="E25" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="E27" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="E30" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="E33" s="31"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="E36" s="31"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="E37" s="31"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="E38" s="31"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="E40" s="31"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="E41" s="31"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="E42" s="31"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>